--- a/result/pruningthreshold.xlsx
+++ b/result/pruningthreshold.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Acc" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
-    <sheet name="Time Rates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Adiac</t>
   </si>
@@ -818,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J1" sqref="J1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +829,7 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="4">
         <v>0</v>
       </c>
@@ -850,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -872,32 +871,8 @@
       <c r="G2" s="3">
         <v>0.84728599999999998</v>
       </c>
-      <c r="J2">
-        <f>B2/G2</f>
-        <v>8954.2927410579196</v>
-      </c>
-      <c r="K2">
-        <f>C2/G2</f>
-        <v>347.20163498511715</v>
-      </c>
-      <c r="L2">
-        <f>D2/G2</f>
-        <v>60.774022703077833</v>
-      </c>
-      <c r="M2">
-        <f>E2/G2</f>
-        <v>9.7280994847076432</v>
-      </c>
-      <c r="N2">
-        <f>F2/G2</f>
-        <v>1.9348986056656194</v>
-      </c>
-      <c r="O2">
-        <f>G2/G2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -919,32 +894,8 @@
       <c r="G3" s="3">
         <v>0.22729640000000001</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J13" si="0">B3/G3</f>
-        <v>2261.7931018705094</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">C3/G3</f>
-        <v>576.81975825398035</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L13" si="2">D3/G3</f>
-        <v>90.353437625936877</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M13" si="3">E3/G3</f>
-        <v>17.891078785233731</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N13" si="4">F3/G3</f>
-        <v>3.8405205713772852</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O13" si="5">G3/G3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -966,32 +917,8 @@
       <c r="G4" s="3">
         <v>38.267685999999998</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>65.710251952522029</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>28.204476045402906</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>12.891368265643237</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>4.8946417742635395</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>2.2785124321339945</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1013,32 +940,8 @@
       <c r="G5" s="3">
         <v>1.1837E-2</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>2644.8786263411339</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>468.89564078736163</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>96.978170144462283</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>17.810137703810085</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>3.9706344512967808</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1060,32 +963,8 @@
       <c r="G6" s="3">
         <v>2.1436400000000001E-2</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1561.6999029687818</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>107.03274803605082</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>13.054356141889494</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>3.9247308316694967</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>1.5008163684200706</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1107,32 +986,8 @@
       <c r="G7" s="3">
         <v>2.6722999999999998E-3</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>43.651760655615014</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>16.528757998727688</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>6.3677356584215845</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>2.8740410882011753</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>1.0752535269243724</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1154,32 +1009,8 @@
       <c r="G8" s="3">
         <v>7.8413762</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>76.494036480484127</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>30.496373085632595</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>15.563466818490356</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>6.6576799873471186</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>2.7463814833931828</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1201,32 +1032,8 @@
       <c r="G9" s="3">
         <v>0.2388006</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>3948.1895811819568</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>720.43964504276789</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>69.695790546589919</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>11.180029698417844</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>2.6329004198481916</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1248,32 +1055,8 @@
       <c r="G10" s="3">
         <v>2.9153999999999998E-3</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>166.3330932290595</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>32.642759141112712</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>10.777423338135419</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>4.0668175893530902</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>1.4675859230294299</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1295,32 +1078,8 @@
       <c r="G11" s="3">
         <v>7.2035399999999999E-2</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>8049.8631922638042</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>422.15569706005658</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>17.076824727842144</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>3.3434019940196071</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>1.9487238218986778</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1342,32 +1101,8 @@
       <c r="G12" s="3">
         <v>21.571441700000001</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>39.46611940638163</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>23.043637741653583</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>12.029183849125856</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>5.3498081771697255</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>2.2283651166440115</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1388,30 +1123,6 @@
       </c>
       <c r="G13" s="3">
         <v>2.9949E-3</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>347.08344185114697</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>42.244983138001274</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>8.6831279842398743</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>3.0889178269725202</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
-        <v>1.2512604761427761</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1709,334 +1420,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5">
-        <v>8954.2927409999993</v>
-      </c>
-      <c r="C1" s="5">
-        <v>347.20163500000001</v>
-      </c>
-      <c r="D1" s="5">
-        <v>60.774022700000003</v>
-      </c>
-      <c r="E1" s="5">
-        <v>9.7280994849999995</v>
-      </c>
-      <c r="F1" s="5">
-        <v>1.934898606</v>
-      </c>
-      <c r="G1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2261.7931020000001</v>
-      </c>
-      <c r="C2" s="5">
-        <v>576.81975829999999</v>
-      </c>
-      <c r="D2" s="5">
-        <v>90.353437630000002</v>
-      </c>
-      <c r="E2" s="5">
-        <v>17.891078790000002</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3.8405205709999999</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>65.71025195</v>
-      </c>
-      <c r="C3" s="5">
-        <v>28.20447605</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12.891368269999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.8946417740000001</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2.2785124319999999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2644.8786260000002</v>
-      </c>
-      <c r="C4" s="5">
-        <v>468.89564080000002</v>
-      </c>
-      <c r="D4" s="5">
-        <v>96.978170140000003</v>
-      </c>
-      <c r="E4" s="5">
-        <v>17.810137699999999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3.970634451</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1561.6999029999999</v>
-      </c>
-      <c r="C5" s="5">
-        <v>107.032748</v>
-      </c>
-      <c r="D5" s="5">
-        <v>13.054356139999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3.9247308319999998</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.500816368</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>43.651760660000001</v>
-      </c>
-      <c r="C6" s="5">
-        <v>16.528758</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6.367735658</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.8740410879999998</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1.0752535270000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>76.494036480000005</v>
-      </c>
-      <c r="C7" s="5">
-        <v>30.496373089999999</v>
-      </c>
-      <c r="D7" s="5">
-        <v>15.56346682</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6.6576799869999999</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2.746381483</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3948.1895810000001</v>
-      </c>
-      <c r="C8" s="5">
-        <v>720.43964500000004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>69.695790549999998</v>
-      </c>
-      <c r="E8" s="5">
-        <v>11.1800297</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2.6329004199999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>166.33309320000001</v>
-      </c>
-      <c r="C9" s="5">
-        <v>32.642759140000003</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10.77742334</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4.0668175890000002</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1.4675859229999999</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>8049.8631919999998</v>
-      </c>
-      <c r="C10" s="5">
-        <v>422.1556971</v>
-      </c>
-      <c r="D10" s="5">
-        <v>17.076824729999998</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3.3434019940000002</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.948723822</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>39.466119409999997</v>
-      </c>
-      <c r="C11" s="5">
-        <v>23.043637740000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12.029183850000001</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5.3498081769999999</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.2283651170000001</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>347.08344190000003</v>
-      </c>
-      <c r="C12" s="5">
-        <v>42.244983140000002</v>
-      </c>
-      <c r="D12" s="5">
-        <v>8.6831279840000004</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3.0889178269999999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.2512604759999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>